--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_498__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_498__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,49 +5873,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>4.198572158813477</c:v>
+                  <c:v>4.198558330535889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.14289093017578</c:v>
+                  <c:v>16.14290046691895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.03103637695312</c:v>
+                  <c:v>13.03103828430176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.805047035217285</c:v>
+                  <c:v>8.8050537109375</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43.77278518676758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.6845874786377</c:v>
+                  <c:v>18.68459320068359</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>34.57057571411133</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.04994106292725</c:v>
+                  <c:v>11.04995059967041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.41085433959961</c:v>
+                  <c:v>11.41086864471436</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4258714914321899</c:v>
+                  <c:v>0.425866574048996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.19096946716309</c:v>
+                  <c:v>31.19095230102539</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.503638029098511</c:v>
+                  <c:v>3.503631114959717</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.55334091186523</c:v>
+                  <c:v>27.55335426330566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.59743309020996</c:v>
+                  <c:v>12.59742832183838</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.907869338989258</c:v>
+                  <c:v>8.907871246337891</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>31.90295600891113</c:v>
@@ -5927,184 +5927,184 @@
                   <c:v>18.14516067504883</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.70082855224609</c:v>
+                  <c:v>12.70083332061768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.03185844421387</c:v>
+                  <c:v>21.0318546295166</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.98709678649902</c:v>
+                  <c:v>28.98710250854492</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>12.61829853057861</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.12721252441406</c:v>
+                  <c:v>20.12720680236816</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.56441688537598</c:v>
+                  <c:v>27.56442642211914</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.862907409667969</c:v>
+                  <c:v>5.862912178039551</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.62502956390381</c:v>
+                  <c:v>12.62503814697266</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.68476104736328</c:v>
+                  <c:v>20.68475914001465</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.45706748962402</c:v>
+                  <c:v>18.45706176757812</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>23.85890769958496</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.98741912841797</c:v>
+                  <c:v>20.98740005493164</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23.21321105957031</c:v>
+                  <c:v>23.21321487426758</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>10.15364742279053</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22.1026554107666</c:v>
+                  <c:v>22.1026668548584</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.1468448638916</c:v>
+                  <c:v>14.14685440063477</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>11.57540988922119</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.15118026733398</c:v>
+                  <c:v>35.15117645263672</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.998027801513672</c:v>
+                  <c:v>8.998029708862305</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.872870922088623</c:v>
+                  <c:v>4.872877597808838</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.6375617980957</c:v>
+                  <c:v>13.63755702972412</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>18.89947700500488</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25.01468658447266</c:v>
+                  <c:v>25.01467704772949</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30.170166015625</c:v>
+                  <c:v>30.17016983032227</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3625714778900146</c:v>
+                  <c:v>0.3625709116458893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21.50810241699219</c:v>
+                  <c:v>21.50809478759766</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27.00969886779785</c:v>
+                  <c:v>27.00969123840332</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>15.55681324005127</c:v>
+                  <c:v>15.55680370330811</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15.43814754486084</c:v>
+                  <c:v>15.43815326690674</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>16.71284675598145</c:v>
+                  <c:v>16.71284294128418</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.51114082336426</c:v>
+                  <c:v>21.51114273071289</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.09579277038574</c:v>
+                  <c:v>20.09580612182617</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14.05591773986816</c:v>
+                  <c:v>14.05591583251953</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>16.56610870361328</c:v>
+                  <c:v>16.56609916687012</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25.27660369873047</c:v>
+                  <c:v>25.2766170501709</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18.28688430786133</c:v>
+                  <c:v>18.28687858581543</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>22.2087459564209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>21.99978065490723</c:v>
+                  <c:v>21.99978637695312</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.142055511474609</c:v>
+                  <c:v>7.142048358917236</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>16.7972526550293</c:v>
+                  <c:v>16.79726028442383</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.686665534973145</c:v>
+                  <c:v>5.68666934967041</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>21.4405460357666</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25.55913352966309</c:v>
+                  <c:v>25.55912780761719</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>13.72148895263672</c:v>
+                  <c:v>13.72149753570557</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>32.84109115600586</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>21.63719749450684</c:v>
+                  <c:v>21.63720512390137</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.1589527130127</c:v>
+                  <c:v>12.15895366668701</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>19.28963279724121</c:v>
+                  <c:v>19.28962135314941</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16.95554733276367</c:v>
+                  <c:v>16.95554351806641</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.57134628295898</c:v>
+                  <c:v>17.57133865356445</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.168449401855469</c:v>
+                  <c:v>9.168454170227051</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>15.242600440979</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>20.53536987304688</c:v>
+                  <c:v>20.53536605834961</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>31.10823822021484</c:v>
+                  <c:v>31.10824584960938</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15.24666404724121</c:v>
+                  <c:v>15.24667549133301</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>11.12922382354736</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>22.88462066650391</c:v>
+                  <c:v>22.88461685180664</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>20.44863510131836</c:v>
+                  <c:v>20.44863128662109</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.49522590637207</c:v>
+                  <c:v>9.495240211486816</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.58122706413269</c:v>
+                  <c:v>2.581231117248535</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>24.46645927429199</c:v>
@@ -6113,58 +6113,58 @@
                   <c:v>-3.84566855430603</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>16.35119247436523</c:v>
+                  <c:v>16.3511905670166</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19.10994911193848</c:v>
+                  <c:v>19.10995674133301</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.17256355285645</c:v>
+                  <c:v>20.17257690429688</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>25.33893203735352</c:v>
+                  <c:v>25.33893394470215</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>15.29993057250977</c:v>
+                  <c:v>15.29990768432617</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.300452709197998</c:v>
+                  <c:v>1.300459623336792</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.443507194519043</c:v>
+                  <c:v>6.443504810333252</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>31.43803215026855</c:v>
+                  <c:v>31.43802261352539</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>15.79329395294189</c:v>
+                  <c:v>15.79330539703369</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.197145462036133</c:v>
+                  <c:v>9.197154998779297</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>19.92174911499023</c:v>
+                  <c:v>19.9217414855957</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.860230445861816</c:v>
+                  <c:v>8.860222816467285</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.4801197052002</c:v>
+                  <c:v>17.48011207580566</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>16.41353034973145</c:v>
+                  <c:v>16.41351890563965</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.1026525720953941</c:v>
+                  <c:v>-0.1026410087943077</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>25.8945369720459</c:v>
+                  <c:v>25.89454078674316</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>17.23395919799805</c:v>
+                  <c:v>17.23396873474121</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28.68476867675781</c:v>
+                  <c:v>28.68476676940918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.198572158813477</v>
+        <v>4.198558330535889</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>16.14289093017578</v>
+        <v>16.14290046691895</v>
       </c>
       <c r="G3">
         <v>84</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.03103637695312</v>
+        <v>13.03103828430176</v>
       </c>
       <c r="G4">
         <v>84</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8.805047035217285</v>
+        <v>8.8050537109375</v>
       </c>
       <c r="G5">
         <v>84</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.6845874786377</v>
+        <v>18.68459320068359</v>
       </c>
       <c r="G7">
         <v>84</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>11.04994106292725</v>
+        <v>11.04995059967041</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>11.41085433959961</v>
+        <v>11.41086864471436</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4258714914321899</v>
+        <v>0.425866574048996</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.19096946716309</v>
+        <v>31.19095230102539</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>3.503638029098511</v>
+        <v>3.503631114959717</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.55334091186523</v>
+        <v>27.55335426330566</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>12.59743309020996</v>
+        <v>12.59742832183838</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>8.907869338989258</v>
+        <v>8.907871246337891</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>12.70082855224609</v>
+        <v>12.70083332061768</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.03185844421387</v>
+        <v>21.0318546295166</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.98709678649902</v>
+        <v>28.98710250854492</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.12721252441406</v>
+        <v>20.12720680236816</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.56441688537598</v>
+        <v>27.56442642211914</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>5.862907409667969</v>
+        <v>5.862912178039551</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>12.62502956390381</v>
+        <v>12.62503814697266</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>20.68476104736328</v>
+        <v>20.68475914001465</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>18.45706748962402</v>
+        <v>18.45706176757812</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>20.98741912841797</v>
+        <v>20.98740005493164</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>23.21321105957031</v>
+        <v>23.21321487426758</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>22.1026554107666</v>
+        <v>22.1026668548584</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>14.1468448638916</v>
+        <v>14.14685440063477</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>35.15118026733398</v>
+        <v>35.15117645263672</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>8.998027801513672</v>
+        <v>8.998029708862305</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>4.872870922088623</v>
+        <v>4.872877597808838</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>13.6375617980957</v>
+        <v>13.63755702972412</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>25.01468658447266</v>
+        <v>25.01467704772949</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>30.170166015625</v>
+        <v>30.17016983032227</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.3625714778900146</v>
+        <v>0.3625709116458893</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>21.50810241699219</v>
+        <v>21.50809478759766</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>27.00969886779785</v>
+        <v>27.00969123840332</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>15.55681324005127</v>
+        <v>15.55680370330811</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>15.43814754486084</v>
+        <v>15.43815326690674</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>16.71284675598145</v>
+        <v>16.71284294128418</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>21.51114082336426</v>
+        <v>21.51114273071289</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>20.09579277038574</v>
+        <v>20.09580612182617</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>14.05591773986816</v>
+        <v>14.05591583251953</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>16.56610870361328</v>
+        <v>16.56609916687012</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>25.27660369873047</v>
+        <v>25.2766170501709</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>18.28688430786133</v>
+        <v>18.28687858581543</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>21.99978065490723</v>
+        <v>21.99978637695312</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>7.142055511474609</v>
+        <v>7.142048358917236</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>16.7972526550293</v>
+        <v>16.79726028442383</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>5.686665534973145</v>
+        <v>5.68666934967041</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>25.55913352966309</v>
+        <v>25.55912780761719</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>13.72148895263672</v>
+        <v>13.72149753570557</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>21.63719749450684</v>
+        <v>21.63720512390137</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>12.1589527130127</v>
+        <v>12.15895366668701</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>19.28963279724121</v>
+        <v>19.28962135314941</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>16.95554733276367</v>
+        <v>16.95554351806641</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>17.57134628295898</v>
+        <v>17.57133865356445</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>9.168449401855469</v>
+        <v>9.168454170227051</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>20.53536987304688</v>
+        <v>20.53536605834961</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>31.10823822021484</v>
+        <v>31.10824584960938</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>15.24666404724121</v>
+        <v>15.24667549133301</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>22.88462066650391</v>
+        <v>22.88461685180664</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>20.44863510131836</v>
+        <v>20.44863128662109</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>9.49522590637207</v>
+        <v>9.495240211486816</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>2.58122706413269</v>
+        <v>2.581231117248535</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>16.35119247436523</v>
+        <v>16.3511905670166</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>19.10994911193848</v>
+        <v>19.10995674133301</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>20.17256355285645</v>
+        <v>20.17257690429688</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>25.33893203735352</v>
+        <v>25.33893394470215</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>15.29993057250977</v>
+        <v>15.29990768432617</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.300452709197998</v>
+        <v>1.300459623336792</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>6.443507194519043</v>
+        <v>6.443504810333252</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>31.43803215026855</v>
+        <v>31.43802261352539</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>15.79329395294189</v>
+        <v>15.79330539703369</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>9.197145462036133</v>
+        <v>9.197154998779297</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>19.92174911499023</v>
+        <v>19.9217414855957</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>8.860230445861816</v>
+        <v>8.860222816467285</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>17.4801197052002</v>
+        <v>17.48011207580566</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>16.41353034973145</v>
+        <v>16.41351890563965</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>-0.1026525720953941</v>
+        <v>-0.1026410087943077</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>25.8945369720459</v>
+        <v>25.89454078674316</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>17.23395919799805</v>
+        <v>17.23396873474121</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>28.68476867675781</v>
+        <v>28.68476676940918</v>
       </c>
     </row>
     <row r="100" spans="1:6">
